--- a/biology/Médecine/Antrite/Antrite.xlsx
+++ b/biology/Médecine/Antrite/Antrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une antrite est une inflammation d'un antre (cavité naturelle de certains organes) ainsi qu'une infection de la muqueuse de celui-ci (uniquement pour l'antre mastoïdien).
 </t>
@@ -513,17 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Définition
-La différence entre une antrite atteignant l'antre pylorique et celle atteignant l'antre mastoïdien est l'infection. En effet, lors d'une antrite mastoïdienne, on peut remarquer une infection de la muqueuse de celui-ci.
-Diagnostic
-Plusieurs symptômes typiques peuvent faire soupçonner la présence d'antrite, mais le seul moyen d'être sur reste encore les examens hospitaliers, fibroscopie ou coloscopie.
-Une biopsie pré-pylorique peut être effectuée afin de confirmer le diagnostic.
-Traitement
-Complications
-Les complications possibles sont :
-méningite (inflammation des méninges : membranes de recouvrement et de protection du système nerveux central) ;
-complication veineuse ;
-abcès cérébral (à l'origine de céphalées (maux de tête), de vomissements, d'œdème du fond d'œil (papille), de nausées, de somnolence, de convulsions, de modification de la personnalité et d'anomalies neurologiques).</t>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La différence entre une antrite atteignant l'antre pylorique et celle atteignant l'antre mastoïdien est l'infection. En effet, lors d'une antrite mastoïdienne, on peut remarquer une infection de la muqueuse de celui-ci.
+</t>
         </is>
       </c>
     </row>
@@ -548,15 +557,96 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Antre mastoïdien</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs symptômes typiques peuvent faire soupçonner la présence d'antrite, mais le seul moyen d'être sur reste encore les examens hospitaliers, fibroscopie ou coloscopie.
+Une biopsie pré-pylorique peut être effectuée afin de confirmer le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antrite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antrite</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Antre mastoïdien</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Complications</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les complications possibles sont :
+méningite (inflammation des méninges : membranes de recouvrement et de protection du système nerveux central) ;
+complication veineuse ;
+abcès cérébral (à l'origine de céphalées (maux de tête), de vomissements, d'œdème du fond d'œil (papille), de nausées, de somnolence, de convulsions, de modification de la personnalité et d'anomalies neurologiques).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antrite</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antrite</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Antre pylorique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Définition
-Dans le cas d'une antrite pylorique, il s'agit d'une inflammation de la partie antérieure de l'estomac précédant le pylore (parti terminale).
-Diagnostic
-Traitement</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Définition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'une antrite pylorique, il s'agit d'une inflammation de la partie antérieure de l'estomac précédant le pylore (parti terminale).
+</t>
         </is>
       </c>
     </row>
